--- a/data/pca/factorExposure/factorExposure_2015-10-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02850560554713872</v>
+        <v>0.02280438541265928</v>
       </c>
       <c r="C2">
-        <v>-0.03556372417195672</v>
+        <v>0.04576427721340428</v>
       </c>
       <c r="D2">
-        <v>0.1104075972501375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1223449878539858</v>
+      </c>
+      <c r="E2">
+        <v>0.04213912366733727</v>
+      </c>
+      <c r="F2">
+        <v>-0.04245658280730051</v>
+      </c>
+      <c r="G2">
+        <v>0.06923774289224091</v>
+      </c>
+      <c r="H2">
+        <v>-0.08755276719475306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0101183698145151</v>
+        <v>0.003986359102067329</v>
       </c>
       <c r="C3">
-        <v>-0.04639223802201631</v>
+        <v>0.03769480941347361</v>
       </c>
       <c r="D3">
-        <v>0.07912558872964041</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05666954663984275</v>
+      </c>
+      <c r="E3">
+        <v>0.0642751512625318</v>
+      </c>
+      <c r="F3">
+        <v>-0.06647713383980028</v>
+      </c>
+      <c r="G3">
+        <v>0.09627616917148085</v>
+      </c>
+      <c r="H3">
+        <v>-0.1009794722600972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05221641131439467</v>
+        <v>0.04602887687789861</v>
       </c>
       <c r="C4">
-        <v>-0.0689505050043704</v>
+        <v>0.08597711681791742</v>
       </c>
       <c r="D4">
-        <v>0.1198428378880402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1383512508513163</v>
+      </c>
+      <c r="E4">
+        <v>0.05618819975934753</v>
+      </c>
+      <c r="F4">
+        <v>-0.05723277987019815</v>
+      </c>
+      <c r="G4">
+        <v>-0.05258107885238922</v>
+      </c>
+      <c r="H4">
+        <v>-0.01014300379273407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0370868541710007</v>
+        <v>0.03673815778752414</v>
       </c>
       <c r="C6">
-        <v>-0.02584694964424102</v>
+        <v>0.03651410828566696</v>
       </c>
       <c r="D6">
-        <v>0.1539918143940309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1420461536838763</v>
+      </c>
+      <c r="E6">
+        <v>0.01357559665618865</v>
+      </c>
+      <c r="F6">
+        <v>-0.04769149281197792</v>
+      </c>
+      <c r="G6">
+        <v>-0.01820225046512764</v>
+      </c>
+      <c r="H6">
+        <v>-0.05273524072650893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02229495731223645</v>
+        <v>0.01758556210629542</v>
       </c>
       <c r="C7">
-        <v>-0.0300754324323685</v>
+        <v>0.03839905685525917</v>
       </c>
       <c r="D7">
-        <v>0.1054188129632307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09536373298554895</v>
+      </c>
+      <c r="E7">
+        <v>-0.0009807451778384177</v>
+      </c>
+      <c r="F7">
+        <v>-0.03050865131369338</v>
+      </c>
+      <c r="G7">
+        <v>0.002822226817932299</v>
+      </c>
+      <c r="H7">
+        <v>-0.06986978123534644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01164523853413611</v>
+        <v>0.006981184791570427</v>
       </c>
       <c r="C8">
-        <v>-0.03437539405838261</v>
+        <v>0.03919230976982805</v>
       </c>
       <c r="D8">
-        <v>0.06232977046291935</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07371712684611964</v>
+      </c>
+      <c r="E8">
+        <v>0.02593236119296101</v>
+      </c>
+      <c r="F8">
+        <v>-0.07507199845526512</v>
+      </c>
+      <c r="G8">
+        <v>0.03307713780690649</v>
+      </c>
+      <c r="H8">
+        <v>-0.05166334915601201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04233026312786563</v>
+        <v>0.03632337601580802</v>
       </c>
       <c r="C9">
-        <v>-0.06005022725336742</v>
+        <v>0.07410533504839083</v>
       </c>
       <c r="D9">
-        <v>0.1085847053383482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1168749488420288</v>
+      </c>
+      <c r="E9">
+        <v>0.04217239028725675</v>
+      </c>
+      <c r="F9">
+        <v>-0.03444792714199687</v>
+      </c>
+      <c r="G9">
+        <v>-0.03708631081393463</v>
+      </c>
+      <c r="H9">
+        <v>-0.009428919718620612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1310822823603207</v>
+        <v>0.1738773403458919</v>
       </c>
       <c r="C10">
-        <v>0.1836240263527314</v>
+        <v>-0.1685394192809557</v>
       </c>
       <c r="D10">
-        <v>-0.001488958365951532</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.003532775793479217</v>
+      </c>
+      <c r="E10">
+        <v>0.03223265175187386</v>
+      </c>
+      <c r="F10">
+        <v>-0.03976462640035692</v>
+      </c>
+      <c r="G10">
+        <v>-0.006255771176654353</v>
+      </c>
+      <c r="H10">
+        <v>0.04638321562274317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03492690131156019</v>
+        <v>0.0290011853456305</v>
       </c>
       <c r="C11">
-        <v>-0.04369804882501777</v>
+        <v>0.05156964562853514</v>
       </c>
       <c r="D11">
-        <v>0.05967330246878143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05427283831009513</v>
+      </c>
+      <c r="E11">
+        <v>-0.01338068445451185</v>
+      </c>
+      <c r="F11">
+        <v>0.004640720085095005</v>
+      </c>
+      <c r="G11">
+        <v>0.003779570675488553</v>
+      </c>
+      <c r="H11">
+        <v>-0.03456241667772932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03854323213240132</v>
+        <v>0.03121241043403017</v>
       </c>
       <c r="C12">
-        <v>-0.04636052619725138</v>
+        <v>0.05344821146357465</v>
       </c>
       <c r="D12">
-        <v>0.06058158233103011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05310508847942259</v>
+      </c>
+      <c r="E12">
+        <v>-0.002200396322755245</v>
+      </c>
+      <c r="F12">
+        <v>0.008255484812310258</v>
+      </c>
+      <c r="G12">
+        <v>0.003998331054033568</v>
+      </c>
+      <c r="H12">
+        <v>-0.03891304621351272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01263626595666573</v>
+        <v>0.01622538385861115</v>
       </c>
       <c r="C13">
-        <v>-0.03676546929283517</v>
+        <v>0.04538419965467451</v>
       </c>
       <c r="D13">
-        <v>0.1395630505879485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1556569393557995</v>
+      </c>
+      <c r="E13">
+        <v>0.01905809235230653</v>
+      </c>
+      <c r="F13">
+        <v>-0.07485369761518131</v>
+      </c>
+      <c r="G13">
+        <v>0.01871904972522499</v>
+      </c>
+      <c r="H13">
+        <v>-0.05629889189991048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0063506121253073</v>
+        <v>0.007431919717598902</v>
       </c>
       <c r="C14">
-        <v>-0.02297476263344589</v>
+        <v>0.02742211296298519</v>
       </c>
       <c r="D14">
-        <v>0.09862334079409309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09956468978309396</v>
+      </c>
+      <c r="E14">
+        <v>0.02283439257891971</v>
+      </c>
+      <c r="F14">
+        <v>-0.02884964529367278</v>
+      </c>
+      <c r="G14">
+        <v>0.001291565935325826</v>
+      </c>
+      <c r="H14">
+        <v>-0.0895104479491992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.00289245453987749</v>
+        <v>0.00146832989603999</v>
       </c>
       <c r="C15">
-        <v>-0.005073618159784883</v>
+        <v>0.01369592464737684</v>
       </c>
       <c r="D15">
-        <v>0.009110967245381482</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03661438967753126</v>
+      </c>
+      <c r="E15">
+        <v>0.00902398649188872</v>
+      </c>
+      <c r="F15">
+        <v>-0.008308277821688175</v>
+      </c>
+      <c r="G15">
+        <v>0.003022438851606037</v>
+      </c>
+      <c r="H15">
+        <v>-0.02066851540490939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03242087922744617</v>
+        <v>0.02745522231989891</v>
       </c>
       <c r="C16">
-        <v>-0.04506430657424721</v>
+        <v>0.05094412832898731</v>
       </c>
       <c r="D16">
-        <v>0.06794224842826269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05981783317479492</v>
+      </c>
+      <c r="E16">
+        <v>0.004726463071807412</v>
+      </c>
+      <c r="F16">
+        <v>-0.004776137734792892</v>
+      </c>
+      <c r="G16">
+        <v>-0.0005382037313983466</v>
+      </c>
+      <c r="H16">
+        <v>-0.05030198285778054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0129030372332582</v>
+        <v>0.00833815335353421</v>
       </c>
       <c r="C19">
-        <v>-0.03326325313223431</v>
+        <v>0.02999407718818577</v>
       </c>
       <c r="D19">
-        <v>0.149388082240642</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1151643385316844</v>
+      </c>
+      <c r="E19">
+        <v>0.05940053092935784</v>
+      </c>
+      <c r="F19">
+        <v>-0.01915523841191624</v>
+      </c>
+      <c r="G19">
+        <v>0.01607718568092442</v>
+      </c>
+      <c r="H19">
+        <v>-0.0525179929919197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0163975636708577</v>
+        <v>0.01607942517887897</v>
       </c>
       <c r="C20">
-        <v>-0.03372647082041379</v>
+        <v>0.03969050899522981</v>
       </c>
       <c r="D20">
-        <v>0.09216230431174419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1033746996713597</v>
+      </c>
+      <c r="E20">
+        <v>0.04320838523290038</v>
+      </c>
+      <c r="F20">
+        <v>-0.02915951092150773</v>
+      </c>
+      <c r="G20">
+        <v>-0.009894199824191988</v>
+      </c>
+      <c r="H20">
+        <v>-0.05169016818139362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01179296600361531</v>
+        <v>0.009057232610173284</v>
       </c>
       <c r="C21">
-        <v>-0.03545251296528022</v>
+        <v>0.04283461959573215</v>
       </c>
       <c r="D21">
-        <v>0.1461815185014591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1437771604327824</v>
+      </c>
+      <c r="E21">
+        <v>0.07747984784730499</v>
+      </c>
+      <c r="F21">
+        <v>-0.06635924598991934</v>
+      </c>
+      <c r="G21">
+        <v>-0.01716246172933228</v>
+      </c>
+      <c r="H21">
+        <v>-0.07714623698838173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0004775838074294859</v>
+        <v>0.007124362044815327</v>
       </c>
       <c r="C22">
-        <v>-0.04748378112722287</v>
+        <v>0.04791800259481031</v>
       </c>
       <c r="D22">
-        <v>0.1149265710049254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1657499311993698</v>
+      </c>
+      <c r="E22">
+        <v>0.01064310424124471</v>
+      </c>
+      <c r="F22">
+        <v>-0.1253088275977932</v>
+      </c>
+      <c r="G22">
+        <v>0.1067098879836509</v>
+      </c>
+      <c r="H22">
+        <v>0.01821217190981888</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0006401090093271778</v>
+        <v>0.007253743983220911</v>
       </c>
       <c r="C23">
-        <v>-0.04779810827313795</v>
+        <v>0.04843170842511904</v>
       </c>
       <c r="D23">
-        <v>0.1143921061875104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1649477723274326</v>
+      </c>
+      <c r="E23">
+        <v>0.01092312159019371</v>
+      </c>
+      <c r="F23">
+        <v>-0.1253884940371627</v>
+      </c>
+      <c r="G23">
+        <v>0.1059327285423749</v>
+      </c>
+      <c r="H23">
+        <v>0.0187675412321217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03801175547673316</v>
+        <v>0.02978820936657196</v>
       </c>
       <c r="C24">
-        <v>-0.05770994901639823</v>
+        <v>0.06402844523773525</v>
       </c>
       <c r="D24">
-        <v>0.06523832027839266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05888418239614109</v>
+      </c>
+      <c r="E24">
+        <v>0.00333008847869589</v>
+      </c>
+      <c r="F24">
+        <v>-0.001403031433670759</v>
+      </c>
+      <c r="G24">
+        <v>-0.01043737153068953</v>
+      </c>
+      <c r="H24">
+        <v>-0.05895749207071543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0423122266243386</v>
+        <v>0.03424711093598833</v>
       </c>
       <c r="C25">
-        <v>-0.05320093938420302</v>
+        <v>0.06041400923800383</v>
       </c>
       <c r="D25">
-        <v>0.06283562202875273</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05645119160153531</v>
+      </c>
+      <c r="E25">
+        <v>0.0074637647473913</v>
+      </c>
+      <c r="F25">
+        <v>-0.004058531004197283</v>
+      </c>
+      <c r="G25">
+        <v>0.002796734169272286</v>
+      </c>
+      <c r="H25">
+        <v>-0.03016830517289617</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01392674662167773</v>
+        <v>0.01388108851968495</v>
       </c>
       <c r="C26">
-        <v>-0.01318909004876885</v>
+        <v>0.02157555641119743</v>
       </c>
       <c r="D26">
-        <v>0.06326548166672132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06728123053533637</v>
+      </c>
+      <c r="E26">
+        <v>0.01875473404304047</v>
+      </c>
+      <c r="F26">
+        <v>-0.03022752073889446</v>
+      </c>
+      <c r="G26">
+        <v>-0.004519895938494506</v>
+      </c>
+      <c r="H26">
+        <v>-0.05567670633073484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1957153666031906</v>
+        <v>0.2520331349172273</v>
       </c>
       <c r="C28">
-        <v>0.2477339143202363</v>
+        <v>-0.2237854170090275</v>
       </c>
       <c r="D28">
-        <v>-0.01782851523983648</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01656910672352807</v>
+      </c>
+      <c r="E28">
+        <v>0.05600887193023631</v>
+      </c>
+      <c r="F28">
+        <v>-0.02808788513429469</v>
+      </c>
+      <c r="G28">
+        <v>-0.02590946280788758</v>
+      </c>
+      <c r="H28">
+        <v>0.06544841296824665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003591010506407386</v>
+        <v>0.005207452335485535</v>
       </c>
       <c r="C29">
-        <v>-0.02141483674080111</v>
+        <v>0.02654576013869015</v>
       </c>
       <c r="D29">
-        <v>0.08764196181136828</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0956496085565459</v>
+      </c>
+      <c r="E29">
+        <v>0.01047721997690622</v>
+      </c>
+      <c r="F29">
+        <v>-0.0458197128488189</v>
+      </c>
+      <c r="G29">
+        <v>-0.008225600085254385</v>
+      </c>
+      <c r="H29">
+        <v>-0.08625970046589597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03545451452588554</v>
+        <v>0.03641925410787834</v>
       </c>
       <c r="C30">
-        <v>-0.06294777520641485</v>
+        <v>0.07512370869088014</v>
       </c>
       <c r="D30">
-        <v>0.158893348778766</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1655809042199192</v>
+      </c>
+      <c r="E30">
+        <v>0.01340345053999839</v>
+      </c>
+      <c r="F30">
+        <v>-0.04189117705282552</v>
+      </c>
+      <c r="G30">
+        <v>-0.01781733775329993</v>
+      </c>
+      <c r="H30">
+        <v>-0.06437557452010569</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0607262061875815</v>
+        <v>0.04544986895232211</v>
       </c>
       <c r="C31">
-        <v>-0.07516012066953798</v>
+        <v>0.08463317721416695</v>
       </c>
       <c r="D31">
-        <v>0.0609913190978689</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04716066293880672</v>
+      </c>
+      <c r="E31">
+        <v>0.01794182798928496</v>
+      </c>
+      <c r="F31">
+        <v>-0.04185793765015718</v>
+      </c>
+      <c r="G31">
+        <v>0.004555738268305991</v>
+      </c>
+      <c r="H31">
+        <v>-0.0241251435312034</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02302328424490957</v>
+        <v>0.0225602476291256</v>
       </c>
       <c r="C32">
-        <v>-0.02222241538297507</v>
+        <v>0.02837480341462655</v>
       </c>
       <c r="D32">
-        <v>0.09163136326774685</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1143607918461019</v>
+      </c>
+      <c r="E32">
+        <v>0.04810852288616645</v>
+      </c>
+      <c r="F32">
+        <v>-0.06574340835955104</v>
+      </c>
+      <c r="G32">
+        <v>0.001412671865802543</v>
+      </c>
+      <c r="H32">
+        <v>-0.03313104171722777</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02540429402675506</v>
+        <v>0.02412923052520317</v>
       </c>
       <c r="C33">
-        <v>-0.04285698935738828</v>
+        <v>0.05174377718574286</v>
       </c>
       <c r="D33">
-        <v>0.1431481506583915</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1349212494652182</v>
+      </c>
+      <c r="E33">
+        <v>0.0350911942972318</v>
+      </c>
+      <c r="F33">
+        <v>-0.04029891967886676</v>
+      </c>
+      <c r="G33">
+        <v>-0.002892256494899038</v>
+      </c>
+      <c r="H33">
+        <v>-0.05825307775292502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03571884902042693</v>
+        <v>0.02648695061351219</v>
       </c>
       <c r="C34">
-        <v>-0.06552708998630173</v>
+        <v>0.06712077225298291</v>
       </c>
       <c r="D34">
-        <v>0.06311892168867814</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0483711911559534</v>
+      </c>
+      <c r="E34">
+        <v>-0.01260232272127012</v>
+      </c>
+      <c r="F34">
+        <v>0.0140841137770047</v>
+      </c>
+      <c r="G34">
+        <v>0.01126378148988176</v>
+      </c>
+      <c r="H34">
+        <v>-0.05483580756099566</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.000940985593119913</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.001637228987007539</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.008192881628296166</v>
+      </c>
+      <c r="E35">
+        <v>-0.0003525800079761579</v>
+      </c>
+      <c r="F35">
+        <v>-0.001759375214988196</v>
+      </c>
+      <c r="G35">
+        <v>0.0002521373313690412</v>
+      </c>
+      <c r="H35">
+        <v>-0.003697313853902452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0196672886432676</v>
+        <v>0.01924075442580754</v>
       </c>
       <c r="C36">
-        <v>-0.008679732334534472</v>
+        <v>0.01928981963017267</v>
       </c>
       <c r="D36">
-        <v>0.0866440992751376</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08111920170546863</v>
+      </c>
+      <c r="E36">
+        <v>0.02385051100170885</v>
+      </c>
+      <c r="F36">
+        <v>-0.02406024775272696</v>
+      </c>
+      <c r="G36">
+        <v>-0.01850999419791121</v>
+      </c>
+      <c r="H36">
+        <v>-0.04393186357863496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0171746247560271</v>
+        <v>0.02126188939644351</v>
       </c>
       <c r="C38">
-        <v>-0.01585004408119385</v>
+        <v>0.02014626801381834</v>
       </c>
       <c r="D38">
-        <v>0.07428669658599622</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.07340659978961842</v>
+      </c>
+      <c r="E38">
+        <v>0.03576177236445895</v>
+      </c>
+      <c r="F38">
+        <v>0.007591566008607013</v>
+      </c>
+      <c r="G38">
+        <v>0.01504669840660271</v>
+      </c>
+      <c r="H38">
+        <v>-0.04174169043282604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03879876489427525</v>
+        <v>0.03153655498083636</v>
       </c>
       <c r="C39">
-        <v>-0.06137068976037558</v>
+        <v>0.07481318445531937</v>
       </c>
       <c r="D39">
-        <v>0.09886931837989966</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.103124237623572</v>
+      </c>
+      <c r="E39">
+        <v>0.003060266619174014</v>
+      </c>
+      <c r="F39">
+        <v>0.009308787070881406</v>
+      </c>
+      <c r="G39">
+        <v>-0.02230221107244817</v>
+      </c>
+      <c r="H39">
+        <v>-0.09145565884696882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01739197633498225</v>
+        <v>0.01364179405760458</v>
       </c>
       <c r="C40">
-        <v>-0.04178643071397382</v>
+        <v>0.0395946665704142</v>
       </c>
       <c r="D40">
-        <v>0.08451199003587868</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08696990283655012</v>
+      </c>
+      <c r="E40">
+        <v>0.03595582414495004</v>
+      </c>
+      <c r="F40">
+        <v>-0.1126674835161577</v>
+      </c>
+      <c r="G40">
+        <v>0.1189296366936</v>
+      </c>
+      <c r="H40">
+        <v>-0.153345983952047</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03107217352151704</v>
+        <v>0.0278108516150462</v>
       </c>
       <c r="C41">
-        <v>-0.005833625252141162</v>
+        <v>0.01461047608279893</v>
       </c>
       <c r="D41">
-        <v>0.06652313192756744</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.04811924139436274</v>
+      </c>
+      <c r="E41">
+        <v>0.04883174461879777</v>
+      </c>
+      <c r="F41">
+        <v>-0.01794975264780965</v>
+      </c>
+      <c r="G41">
+        <v>0.01680535063265668</v>
+      </c>
+      <c r="H41">
+        <v>-0.04913031864607954</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0289437892368937</v>
+        <v>0.02364592477718171</v>
       </c>
       <c r="C43">
-        <v>-0.01434043679463693</v>
+        <v>0.02138427504242355</v>
       </c>
       <c r="D43">
-        <v>0.1102576821656216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08390681821206931</v>
+      </c>
+      <c r="E43">
+        <v>0.03024036454243405</v>
+      </c>
+      <c r="F43">
+        <v>-0.01227654053117081</v>
+      </c>
+      <c r="G43">
+        <v>0.007300309069532294</v>
+      </c>
+      <c r="H43">
+        <v>-0.05866482146926108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01641247208281528</v>
+        <v>0.01792803063858974</v>
       </c>
       <c r="C44">
-        <v>-0.04023505218548061</v>
+        <v>0.04401048152229894</v>
       </c>
       <c r="D44">
-        <v>0.09200939202894468</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1063850199202862</v>
+      </c>
+      <c r="E44">
+        <v>0.03769130198139132</v>
+      </c>
+      <c r="F44">
+        <v>-0.02947698248331908</v>
+      </c>
+      <c r="G44">
+        <v>-0.005290209205716458</v>
+      </c>
+      <c r="H44">
+        <v>-0.04368363754743781</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01585708292592506</v>
+        <v>0.01164880777104053</v>
       </c>
       <c r="C46">
-        <v>-0.02580303583100829</v>
+        <v>0.03497197007014056</v>
       </c>
       <c r="D46">
-        <v>0.09200147348338716</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09058483694226235</v>
+      </c>
+      <c r="E46">
+        <v>0.02520663025411529</v>
+      </c>
+      <c r="F46">
+        <v>-0.0240350510965719</v>
+      </c>
+      <c r="G46">
+        <v>-0.01787575824129836</v>
+      </c>
+      <c r="H46">
+        <v>-0.08695935962986358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09047729540017517</v>
+        <v>0.07229953991666961</v>
       </c>
       <c r="C47">
-        <v>-0.08971874724899334</v>
+        <v>0.1038320746390816</v>
       </c>
       <c r="D47">
-        <v>0.02612627466277863</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02318103015063269</v>
+      </c>
+      <c r="E47">
+        <v>0.02814213990003254</v>
+      </c>
+      <c r="F47">
+        <v>-0.02581142739624389</v>
+      </c>
+      <c r="G47">
+        <v>0.0129465693265481</v>
+      </c>
+      <c r="H47">
+        <v>0.04226688372008977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01243098217134032</v>
+        <v>0.01370079894463877</v>
       </c>
       <c r="C48">
-        <v>-0.01997677880773455</v>
+        <v>0.02486820805487858</v>
       </c>
       <c r="D48">
-        <v>0.07329005540119098</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07482795027115639</v>
+      </c>
+      <c r="E48">
+        <v>0.05412808659890338</v>
+      </c>
+      <c r="F48">
+        <v>-0.03044953819403574</v>
+      </c>
+      <c r="G48">
+        <v>-0.01936663477571879</v>
+      </c>
+      <c r="H48">
+        <v>-0.06024411620665849</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05273936982373374</v>
+        <v>0.04023164116236263</v>
       </c>
       <c r="C50">
-        <v>-0.06211236640741615</v>
+        <v>0.07314220674379755</v>
       </c>
       <c r="D50">
-        <v>0.05750475879764523</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05143232834660056</v>
+      </c>
+      <c r="E50">
+        <v>0.02558756966357499</v>
+      </c>
+      <c r="F50">
+        <v>-0.04576417570565229</v>
+      </c>
+      <c r="G50">
+        <v>0.03262304874933811</v>
+      </c>
+      <c r="H50">
+        <v>-0.02170774125480384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01549577475057893</v>
+        <v>0.01297962878164293</v>
       </c>
       <c r="C51">
-        <v>-0.01573384918992908</v>
+        <v>0.02466595060472143</v>
       </c>
       <c r="D51">
-        <v>0.08874982573227563</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09414094885796663</v>
+      </c>
+      <c r="E51">
+        <v>-0.005108771221132684</v>
+      </c>
+      <c r="F51">
+        <v>-0.01427147467005463</v>
+      </c>
+      <c r="G51">
+        <v>-0.01323073361905775</v>
+      </c>
+      <c r="H51">
+        <v>-0.07126718460521693</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1036402439302961</v>
+        <v>0.09036419675650666</v>
       </c>
       <c r="C53">
-        <v>-0.1059929058265502</v>
+        <v>0.1217370627730052</v>
       </c>
       <c r="D53">
-        <v>-0.0184958908789094</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01532218876838097</v>
+      </c>
+      <c r="E53">
+        <v>0.07368560178918639</v>
+      </c>
+      <c r="F53">
+        <v>-0.07781050011850062</v>
+      </c>
+      <c r="G53">
+        <v>-0.02163007580293142</v>
+      </c>
+      <c r="H53">
+        <v>0.01334277046470908</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02272535973282869</v>
+        <v>0.02083973961750951</v>
       </c>
       <c r="C54">
-        <v>-0.02854667936515649</v>
+        <v>0.03739162807152904</v>
       </c>
       <c r="D54">
-        <v>0.1054971233739147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.09492919043556262</v>
+      </c>
+      <c r="E54">
+        <v>0.03520605156584338</v>
+      </c>
+      <c r="F54">
+        <v>-0.02039322077226156</v>
+      </c>
+      <c r="G54">
+        <v>0.01754289433579724</v>
+      </c>
+      <c r="H54">
+        <v>-0.07854224951105661</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09624625661946237</v>
+        <v>0.08137399082091805</v>
       </c>
       <c r="C55">
-        <v>-0.08063344293880519</v>
+        <v>0.09710426455254151</v>
       </c>
       <c r="D55">
-        <v>-0.02806346283438269</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02492174489932908</v>
+      </c>
+      <c r="E55">
+        <v>0.02908549818678212</v>
+      </c>
+      <c r="F55">
+        <v>-0.06111657494279661</v>
+      </c>
+      <c r="G55">
+        <v>0.006837921621224645</v>
+      </c>
+      <c r="H55">
+        <v>0.00805269342556216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1342345953177926</v>
+        <v>0.113698933260389</v>
       </c>
       <c r="C56">
-        <v>-0.1155687729242283</v>
+        <v>0.1441673258812553</v>
       </c>
       <c r="D56">
-        <v>-0.02909142021939717</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03105698383429316</v>
+      </c>
+      <c r="E56">
+        <v>0.04707394001809213</v>
+      </c>
+      <c r="F56">
+        <v>-0.05032152190042621</v>
+      </c>
+      <c r="G56">
+        <v>0.01747343989228888</v>
+      </c>
+      <c r="H56">
+        <v>0.03131443368120908</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01246803464900674</v>
+        <v>0.01891426969212974</v>
       </c>
       <c r="C58">
-        <v>-0.03531118006001434</v>
+        <v>0.05502146623883401</v>
       </c>
       <c r="D58">
-        <v>0.256002849814793</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2994035271020775</v>
+      </c>
+      <c r="E58">
+        <v>0.08329930884998538</v>
+      </c>
+      <c r="F58">
+        <v>-0.141722744036875</v>
+      </c>
+      <c r="G58">
+        <v>0.09691858232576707</v>
+      </c>
+      <c r="H58">
+        <v>0.03797205446975515</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1558666942368418</v>
+        <v>0.1965431641143353</v>
       </c>
       <c r="C59">
-        <v>0.1679685464920319</v>
+        <v>-0.1425347701450916</v>
       </c>
       <c r="D59">
-        <v>0.04898439262961413</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06139548042369669</v>
+      </c>
+      <c r="E59">
+        <v>0.04601863314077486</v>
+      </c>
+      <c r="F59">
+        <v>0.01917486657964755</v>
+      </c>
+      <c r="G59">
+        <v>-0.007085128415607261</v>
+      </c>
+      <c r="H59">
+        <v>0.02482668511278585</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2328171349634067</v>
+        <v>0.2125952890668683</v>
       </c>
       <c r="C60">
-        <v>-0.08311771415070848</v>
+        <v>0.1255854472256612</v>
       </c>
       <c r="D60">
-        <v>0.1713873564456519</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1254516884692641</v>
+      </c>
+      <c r="E60">
+        <v>-0.3191968072920778</v>
+      </c>
+      <c r="F60">
+        <v>0.1261420721255815</v>
+      </c>
+      <c r="G60">
+        <v>-0.0297762197125789</v>
+      </c>
+      <c r="H60">
+        <v>0.1876092262678133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04444184119516047</v>
+        <v>0.03602231061336523</v>
       </c>
       <c r="C61">
-        <v>-0.05681358387476775</v>
+        <v>0.06826318993047391</v>
       </c>
       <c r="D61">
-        <v>0.1079410208689789</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09369393774521458</v>
+      </c>
+      <c r="E61">
+        <v>-0.001995108860042845</v>
+      </c>
+      <c r="F61">
+        <v>0.007099869878584229</v>
+      </c>
+      <c r="G61">
+        <v>-0.01265993449560594</v>
+      </c>
+      <c r="H61">
+        <v>-0.05107509062475715</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01671215129233081</v>
+        <v>0.01430761229812589</v>
       </c>
       <c r="C63">
-        <v>-0.02342952801262691</v>
+        <v>0.03448324315300779</v>
       </c>
       <c r="D63">
-        <v>0.08297974127618513</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07641732807105021</v>
+      </c>
+      <c r="E63">
+        <v>0.007207312987999881</v>
+      </c>
+      <c r="F63">
+        <v>-0.02237694404196613</v>
+      </c>
+      <c r="G63">
+        <v>-0.01446884045163385</v>
+      </c>
+      <c r="H63">
+        <v>-0.04985118746902815</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05738564965691234</v>
+        <v>0.04401637768980676</v>
       </c>
       <c r="C64">
-        <v>-0.07896244794334246</v>
+        <v>0.08587568709476258</v>
       </c>
       <c r="D64">
-        <v>0.04754060863750641</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04827716187479305</v>
+      </c>
+      <c r="E64">
+        <v>0.01531259767071109</v>
+      </c>
+      <c r="F64">
+        <v>-0.001785527921128767</v>
+      </c>
+      <c r="G64">
+        <v>-0.08477679551350986</v>
+      </c>
+      <c r="H64">
+        <v>-0.05117601094373238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0385390531379445</v>
+        <v>0.03589395530695437</v>
       </c>
       <c r="C65">
-        <v>-0.02146881630462787</v>
+        <v>0.03551791273387821</v>
       </c>
       <c r="D65">
-        <v>0.1262672143626779</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.116341753763869</v>
+      </c>
+      <c r="E65">
+        <v>-0.002953780634105726</v>
+      </c>
+      <c r="F65">
+        <v>-0.02073323282285013</v>
+      </c>
+      <c r="G65">
+        <v>-0.002084279308200662</v>
+      </c>
+      <c r="H65">
+        <v>-0.02341187289467951</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04269519141605561</v>
+        <v>0.03518897483571266</v>
       </c>
       <c r="C66">
-        <v>-0.06847517822364037</v>
+        <v>0.08546332045757479</v>
       </c>
       <c r="D66">
-        <v>0.1129257094522799</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.12579380535651</v>
+      </c>
+      <c r="E66">
+        <v>0.006408517280424277</v>
+      </c>
+      <c r="F66">
+        <v>-0.0005181979525183611</v>
+      </c>
+      <c r="G66">
+        <v>0.001544900064184936</v>
+      </c>
+      <c r="H66">
+        <v>-0.05683060328641589</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03802977123339632</v>
+        <v>0.03686195683464182</v>
       </c>
       <c r="C67">
-        <v>-0.0231542735055223</v>
+        <v>0.02907360916908956</v>
       </c>
       <c r="D67">
-        <v>0.03923247322490717</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03003075404765027</v>
+      </c>
+      <c r="E67">
+        <v>0.01036341565370907</v>
+      </c>
+      <c r="F67">
+        <v>0.02230375151564719</v>
+      </c>
+      <c r="G67">
+        <v>0.01584042426619994</v>
+      </c>
+      <c r="H67">
+        <v>-0.0441291767006388</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1900081551008803</v>
+        <v>0.2277942956777205</v>
       </c>
       <c r="C68">
-        <v>0.2015262107944308</v>
+        <v>-0.1667654791843386</v>
       </c>
       <c r="D68">
-        <v>0.01280491602290574</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01870919849821685</v>
+      </c>
+      <c r="E68">
+        <v>0.01315536686782035</v>
+      </c>
+      <c r="F68">
+        <v>-0.03911916736067635</v>
+      </c>
+      <c r="G68">
+        <v>0.02446847318020318</v>
+      </c>
+      <c r="H68">
+        <v>0.003744480008904943</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0856002060014165</v>
+        <v>0.06529722124065804</v>
       </c>
       <c r="C69">
-        <v>-0.1036045107672758</v>
+        <v>0.1101618939220074</v>
       </c>
       <c r="D69">
-        <v>0.05837012228323916</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0384240726521118</v>
+      </c>
+      <c r="E69">
+        <v>0.01733683839019696</v>
+      </c>
+      <c r="F69">
+        <v>-0.009522712300839233</v>
+      </c>
+      <c r="G69">
+        <v>0.007420275964655963</v>
+      </c>
+      <c r="H69">
+        <v>0.00973172517983148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1760526981246337</v>
+        <v>0.2147599284967292</v>
       </c>
       <c r="C71">
-        <v>0.2059920091490883</v>
+        <v>-0.1736818622549615</v>
       </c>
       <c r="D71">
-        <v>0.01557347371853018</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02440359218075462</v>
+      </c>
+      <c r="E71">
+        <v>0.03495165018503579</v>
+      </c>
+      <c r="F71">
+        <v>-0.06428147239089106</v>
+      </c>
+      <c r="G71">
+        <v>0.03897658466320522</v>
+      </c>
+      <c r="H71">
+        <v>0.007830299078386574</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.110105285730848</v>
+        <v>0.09691658558744121</v>
       </c>
       <c r="C72">
-        <v>-0.06417865340755798</v>
+        <v>0.09228186935090014</v>
       </c>
       <c r="D72">
-        <v>0.08320181522895807</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.08487874483251329</v>
+      </c>
+      <c r="E72">
+        <v>-0.06457788512115582</v>
+      </c>
+      <c r="F72">
+        <v>-0.03001954943389927</v>
+      </c>
+      <c r="G72">
+        <v>-0.02059704079894453</v>
+      </c>
+      <c r="H72">
+        <v>-0.02702450382318766</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2273021444108457</v>
+        <v>0.2029836156068452</v>
       </c>
       <c r="C73">
-        <v>-0.04963766197899237</v>
+        <v>0.1077721776546574</v>
       </c>
       <c r="D73">
-        <v>0.2957263352932403</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1861893099625804</v>
+      </c>
+      <c r="E73">
+        <v>-0.580194545703965</v>
+      </c>
+      <c r="F73">
+        <v>0.193056335945445</v>
+      </c>
+      <c r="G73">
+        <v>-0.04661232242270235</v>
+      </c>
+      <c r="H73">
+        <v>0.2291954289746352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.109441186673741</v>
+        <v>0.09071461374806224</v>
       </c>
       <c r="C74">
-        <v>-0.08586353663769669</v>
+        <v>0.1068206765613751</v>
       </c>
       <c r="D74">
-        <v>-0.03619698175467301</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03706034876692539</v>
+      </c>
+      <c r="E74">
+        <v>0.02654948904643036</v>
+      </c>
+      <c r="F74">
+        <v>-0.06926362671860939</v>
+      </c>
+      <c r="G74">
+        <v>-0.02329436481051103</v>
+      </c>
+      <c r="H74">
+        <v>0.04339231887694921</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2528769096338282</v>
+        <v>0.2116871292600487</v>
       </c>
       <c r="C75">
-        <v>-0.1599832598340857</v>
+        <v>0.200645449510228</v>
       </c>
       <c r="D75">
-        <v>-0.1246418062917138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1435001789563887</v>
+      </c>
+      <c r="E75">
+        <v>0.08353346614652903</v>
+      </c>
+      <c r="F75">
+        <v>-0.01663642523075365</v>
+      </c>
+      <c r="G75">
+        <v>0.04557255976393456</v>
+      </c>
+      <c r="H75">
+        <v>0.05403902864525805</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1456712195697046</v>
+        <v>0.1196791578749149</v>
       </c>
       <c r="C76">
-        <v>-0.1116894613330235</v>
+        <v>0.1361527178404192</v>
       </c>
       <c r="D76">
-        <v>-0.03472416002801337</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0401925969365472</v>
+      </c>
+      <c r="E76">
+        <v>0.08010204792172551</v>
+      </c>
+      <c r="F76">
+        <v>-0.03182077678862383</v>
+      </c>
+      <c r="G76">
+        <v>-0.008080684630365058</v>
+      </c>
+      <c r="H76">
+        <v>-0.03174874546813437</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04163112605878191</v>
+        <v>0.04628237430403525</v>
       </c>
       <c r="C77">
-        <v>-0.069729808743855</v>
+        <v>0.08324304451250118</v>
       </c>
       <c r="D77">
-        <v>0.03748659629810588</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.131080733523019</v>
+      </c>
+      <c r="E77">
+        <v>0.4783848124597708</v>
+      </c>
+      <c r="F77">
+        <v>0.3145948368114839</v>
+      </c>
+      <c r="G77">
+        <v>0.3687219220865516</v>
+      </c>
+      <c r="H77">
+        <v>0.6185351335354591</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04320313760077996</v>
+        <v>0.04213035007844054</v>
       </c>
       <c r="C78">
-        <v>-0.06210214710206192</v>
+        <v>0.0735024046082603</v>
       </c>
       <c r="D78">
-        <v>0.128383448011835</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1343278165214173</v>
+      </c>
+      <c r="E78">
+        <v>0.0101757139289444</v>
+      </c>
+      <c r="F78">
+        <v>-0.04269583757224454</v>
+      </c>
+      <c r="G78">
+        <v>-0.00171172840575196</v>
+      </c>
+      <c r="H78">
+        <v>0.01812706571995217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.05226787470194243</v>
+        <v>0.04937841375897847</v>
       </c>
       <c r="C79">
-        <v>-0.1036968461827412</v>
+        <v>0.1148377673297633</v>
       </c>
       <c r="D79">
-        <v>-0.1414916794225121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07677898924917881</v>
+      </c>
+      <c r="E79">
+        <v>0.1741155821777959</v>
+      </c>
+      <c r="F79">
+        <v>-0.3885282404170342</v>
+      </c>
+      <c r="G79">
+        <v>-0.7000565630569731</v>
+      </c>
+      <c r="H79">
+        <v>0.3602149979371383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02090089050060447</v>
+        <v>0.01777127437043087</v>
       </c>
       <c r="C80">
-        <v>-0.04754832249680466</v>
+        <v>0.04790573639440335</v>
       </c>
       <c r="D80">
-        <v>0.0230506295553812</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01800720411980448</v>
+      </c>
+      <c r="E80">
+        <v>0.01281298222373429</v>
+      </c>
+      <c r="F80">
+        <v>-0.01303347790655038</v>
+      </c>
+      <c r="G80">
+        <v>0.003171338405215839</v>
+      </c>
+      <c r="H80">
+        <v>-0.07301608951399982</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.132478025979135</v>
+        <v>0.1046586681276013</v>
       </c>
       <c r="C81">
-        <v>-0.1180101590317436</v>
+        <v>0.1375875804969327</v>
       </c>
       <c r="D81">
-        <v>-0.09794899601620267</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09898558400908233</v>
+      </c>
+      <c r="E81">
+        <v>0.0943358720144265</v>
+      </c>
+      <c r="F81">
+        <v>-0.0632864755957442</v>
+      </c>
+      <c r="G81">
+        <v>0.002742811820484962</v>
+      </c>
+      <c r="H81">
+        <v>-0.01359362759418766</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2685629335035333</v>
+        <v>0.2064052861437609</v>
       </c>
       <c r="C82">
-        <v>-0.2432572521203714</v>
+        <v>0.2646156871180166</v>
       </c>
       <c r="D82">
-        <v>-0.2107860257533626</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2192205972253115</v>
+      </c>
+      <c r="E82">
+        <v>-0.0003155338544068934</v>
+      </c>
+      <c r="F82">
+        <v>0.04280061365553234</v>
+      </c>
+      <c r="G82">
+        <v>0.05624836795935979</v>
+      </c>
+      <c r="H82">
+        <v>-0.006114037452043008</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02060067332210308</v>
+        <v>0.0127652754953441</v>
       </c>
       <c r="C83">
-        <v>-0.05741167641372293</v>
+        <v>0.0541946367356341</v>
       </c>
       <c r="D83">
-        <v>0.04830935939556374</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05542374290359483</v>
+      </c>
+      <c r="E83">
+        <v>0.06093670989779121</v>
+      </c>
+      <c r="F83">
+        <v>0.06042538349614589</v>
+      </c>
+      <c r="G83">
+        <v>0.02526623471655856</v>
+      </c>
+      <c r="H83">
+        <v>0.03843218440683827</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0009302784856887898</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.005817556162260588</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01727121931725747</v>
+      </c>
+      <c r="E84">
+        <v>0.01392368348622307</v>
+      </c>
+      <c r="F84">
+        <v>-0.02104722077392674</v>
+      </c>
+      <c r="G84">
+        <v>0.003388238965621435</v>
+      </c>
+      <c r="H84">
+        <v>-0.02209468606829254</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1689859546617951</v>
+        <v>0.137802670841909</v>
       </c>
       <c r="C85">
-        <v>-0.1282545408690169</v>
+        <v>0.1602891422013358</v>
       </c>
       <c r="D85">
-        <v>-0.05980759833401659</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08323623232474803</v>
+      </c>
+      <c r="E85">
+        <v>0.007315232646231312</v>
+      </c>
+      <c r="F85">
+        <v>-0.0533605319678388</v>
+      </c>
+      <c r="G85">
+        <v>-0.06454389151829371</v>
+      </c>
+      <c r="H85">
+        <v>0.01032177552969428</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02473394270145511</v>
+        <v>0.02204344777193027</v>
       </c>
       <c r="C86">
-        <v>-0.03810901864017324</v>
+        <v>0.03938149159873686</v>
       </c>
       <c r="D86">
-        <v>0.1203625564157488</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1206774293326925</v>
+      </c>
+      <c r="E86">
+        <v>0.02801898638631554</v>
+      </c>
+      <c r="F86">
+        <v>0.002428865122453095</v>
+      </c>
+      <c r="G86">
+        <v>0.06045125226645662</v>
+      </c>
+      <c r="H86">
+        <v>0.0417433571090032</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02841963124520042</v>
+        <v>0.033396382112911</v>
       </c>
       <c r="C87">
-        <v>-0.02144152780746846</v>
+        <v>0.03478985315296703</v>
       </c>
       <c r="D87">
-        <v>0.1070361142837071</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1320850399370521</v>
+      </c>
+      <c r="E87">
+        <v>0.0590047265841438</v>
+      </c>
+      <c r="F87">
+        <v>-0.03776139690593837</v>
+      </c>
+      <c r="G87">
+        <v>0.003449086179194666</v>
+      </c>
+      <c r="H87">
+        <v>-0.05160327851882597</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07290761773495495</v>
+        <v>0.05877760543240981</v>
       </c>
       <c r="C88">
-        <v>-0.0475450826999592</v>
+        <v>0.06218547252366839</v>
       </c>
       <c r="D88">
-        <v>0.03720984832737034</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01437289440319764</v>
+      </c>
+      <c r="E88">
+        <v>0.004619477777068453</v>
+      </c>
+      <c r="F88">
+        <v>-0.02840625451109799</v>
+      </c>
+      <c r="G88">
+        <v>-0.01435718402700336</v>
+      </c>
+      <c r="H88">
+        <v>-0.05194825611697278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2680125089738252</v>
+        <v>0.3267502249727944</v>
       </c>
       <c r="C89">
-        <v>0.378099586812022</v>
+        <v>-0.3098547098255254</v>
       </c>
       <c r="D89">
-        <v>-0.01493146298319686</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-4.06997594192686e-05</v>
+      </c>
+      <c r="E89">
+        <v>0.06421595467040876</v>
+      </c>
+      <c r="F89">
+        <v>0.003683025688359331</v>
+      </c>
+      <c r="G89">
+        <v>-0.05187101993122395</v>
+      </c>
+      <c r="H89">
+        <v>-0.1150982398520403</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2266298903790336</v>
+        <v>0.2677841243880297</v>
       </c>
       <c r="C90">
-        <v>0.2784503878420576</v>
+        <v>-0.21996800881322</v>
       </c>
       <c r="D90">
-        <v>0.009213733547389798</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.0257720717600542</v>
+      </c>
+      <c r="E90">
+        <v>0.0497834800126849</v>
+      </c>
+      <c r="F90">
+        <v>-0.004730941462181355</v>
+      </c>
+      <c r="G90">
+        <v>0.04385262640272071</v>
+      </c>
+      <c r="H90">
+        <v>-0.04277666023419884</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1701749141259166</v>
+        <v>0.1347934735733735</v>
       </c>
       <c r="C91">
-        <v>-0.1660283318301692</v>
+        <v>0.1796720834319565</v>
       </c>
       <c r="D91">
-        <v>-0.1215042797587598</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1171931308635107</v>
+      </c>
+      <c r="E91">
+        <v>0.09380569432275607</v>
+      </c>
+      <c r="F91">
+        <v>-0.06204659235036632</v>
+      </c>
+      <c r="G91">
+        <v>-0.03719286340847719</v>
+      </c>
+      <c r="H91">
+        <v>0.0500489749574542</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1980899261898075</v>
+        <v>0.2576376584890528</v>
       </c>
       <c r="C92">
-        <v>0.2716827810074943</v>
+        <v>-0.2413047134771851</v>
       </c>
       <c r="D92">
-        <v>0.02221831246711852</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03176082800237506</v>
+      </c>
+      <c r="E92">
+        <v>0.1074378748889611</v>
+      </c>
+      <c r="F92">
+        <v>-0.01766617537214278</v>
+      </c>
+      <c r="G92">
+        <v>-0.009584882150173692</v>
+      </c>
+      <c r="H92">
+        <v>-0.04659511560051947</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2449070023487558</v>
+        <v>0.2820722475210257</v>
       </c>
       <c r="C93">
-        <v>0.2906646692490478</v>
+        <v>-0.2290885185056219</v>
       </c>
       <c r="D93">
-        <v>0.01363131424289536</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.002564589429305003</v>
+      </c>
+      <c r="E93">
+        <v>-0.01387056122515776</v>
+      </c>
+      <c r="F93">
+        <v>-0.03245845970332992</v>
+      </c>
+      <c r="G93">
+        <v>-0.01543937963417419</v>
+      </c>
+      <c r="H93">
+        <v>-0.0003033235691838993</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3281990813011467</v>
+        <v>0.2697258025605218</v>
       </c>
       <c r="C94">
-        <v>-0.2210049840907908</v>
+        <v>0.2800009116251192</v>
       </c>
       <c r="D94">
-        <v>-0.4038459847834745</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4207536091878019</v>
+      </c>
+      <c r="E94">
+        <v>0.004811159008482831</v>
+      </c>
+      <c r="F94">
+        <v>0.01523516226572307</v>
+      </c>
+      <c r="G94">
+        <v>0.2400639309732943</v>
+      </c>
+      <c r="H94">
+        <v>-0.292823494621877</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07173931550390134</v>
+        <v>0.06467849075049117</v>
       </c>
       <c r="C95">
-        <v>-0.07617204470935919</v>
+        <v>0.08609129535171224</v>
       </c>
       <c r="D95">
-        <v>0.1380960979900166</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1138614361274993</v>
+      </c>
+      <c r="E95">
+        <v>0.2550476792430775</v>
+      </c>
+      <c r="F95">
+        <v>0.7207773218756549</v>
+      </c>
+      <c r="G95">
+        <v>-0.456432443893849</v>
+      </c>
+      <c r="H95">
+        <v>-0.2670665188377205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>4.755931726687843e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-4.023674965530228e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>3.094668330467309e-05</v>
+      </c>
+      <c r="E97">
+        <v>8.985751388173288e-05</v>
+      </c>
+      <c r="F97">
+        <v>-0.0002036441422087366</v>
+      </c>
+      <c r="G97">
+        <v>0.0001402753583887949</v>
+      </c>
+      <c r="H97">
+        <v>0.000207596469825937</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1748388046715898</v>
+        <v>0.1619276240329242</v>
       </c>
       <c r="C98">
-        <v>-0.05735677594343746</v>
+        <v>0.09537498612500241</v>
       </c>
       <c r="D98">
-        <v>0.1379430386960565</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1018595264731158</v>
+      </c>
+      <c r="E98">
+        <v>-0.3264829101503748</v>
+      </c>
+      <c r="F98">
+        <v>0.08206775493788043</v>
+      </c>
+      <c r="G98">
+        <v>-0.01230151124172912</v>
+      </c>
+      <c r="H98">
+        <v>0.1352048381943125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003703540056631864</v>
+        <v>0.005381813900088976</v>
       </c>
       <c r="C101">
-        <v>-0.0207985234318042</v>
+        <v>0.0258041415244613</v>
       </c>
       <c r="D101">
-        <v>0.08776892222120172</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09546916944547276</v>
+      </c>
+      <c r="E101">
+        <v>0.01138486507291084</v>
+      </c>
+      <c r="F101">
+        <v>-0.04526250944704671</v>
+      </c>
+      <c r="G101">
+        <v>-0.008744129500646434</v>
+      </c>
+      <c r="H101">
+        <v>-0.08611013945195689</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1252551109969176</v>
+        <v>0.09274119732314456</v>
       </c>
       <c r="C102">
-        <v>-0.1309332005288385</v>
+        <v>0.1349493147058966</v>
       </c>
       <c r="D102">
-        <v>-0.07937611917277838</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.08811524730802671</v>
+      </c>
+      <c r="E102">
+        <v>0.02126200259049011</v>
+      </c>
+      <c r="F102">
+        <v>0.03478933944967577</v>
+      </c>
+      <c r="G102">
+        <v>0.02224191737389823</v>
+      </c>
+      <c r="H102">
+        <v>0.003544549554492942</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
